--- a/scores.xlsx
+++ b/scores.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E34"/>
+  <dimension ref="A1:F34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -434,722 +434,826 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    Rank</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
         <is>
           <t>Roll Number</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>Name</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>Leetcode</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>CodeChef</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>Total Score</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
+      <c r="A2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" t="inlineStr">
         <is>
           <t>21311A6713</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="C2" t="inlineStr">
         <is>
           <t xml:space="preserve">Bura Udaysai </t>
         </is>
       </c>
-      <c r="C2" t="n">
+      <c r="D2" t="n">
         <v>375</v>
       </c>
-      <c r="D2" t="n">
-        <v>0</v>
-      </c>
       <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="n">
         <v>18750</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
+      <c r="A3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" t="inlineStr">
         <is>
           <t>21311A6718</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="C3" t="inlineStr">
         <is>
           <t>VIVEK SAI SHEELAM</t>
         </is>
       </c>
-      <c r="C3" t="n">
+      <c r="D3" t="n">
         <v>270</v>
       </c>
-      <c r="D3" t="n">
+      <c r="E3" t="n">
         <v>237</v>
       </c>
-      <c r="E3" t="n">
+      <c r="F3" t="n">
         <v>18240</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
+      <c r="A4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" t="inlineStr">
         <is>
           <t>21311A6717</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="C4" t="inlineStr">
         <is>
           <t xml:space="preserve">Sabasu Nag Siva Preetham </t>
         </is>
       </c>
-      <c r="C4" t="n">
+      <c r="D4" t="n">
         <v>264</v>
       </c>
-      <c r="D4" t="n">
-        <v>0</v>
-      </c>
       <c r="E4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" t="n">
         <v>13200</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
+      <c r="A5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="inlineStr">
         <is>
           <t>21311A6735</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="C5" t="inlineStr">
         <is>
           <t>yousuf</t>
         </is>
       </c>
-      <c r="C5" t="n">
-        <v>152</v>
-      </c>
       <c r="D5" t="n">
+        <v>153</v>
+      </c>
+      <c r="E5" t="n">
         <v>206</v>
       </c>
-      <c r="E5" t="n">
-        <v>11720</v>
+      <c r="F5" t="n">
+        <v>11770</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr">
+      <c r="A6" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" t="inlineStr">
         <is>
           <t>21311A6747</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="C6" t="inlineStr">
         <is>
           <t>Yeruva Srilaxmi</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="D6" t="n">
         <v>124</v>
       </c>
-      <c r="D6" t="n">
+      <c r="E6" t="n">
         <v>135</v>
       </c>
-      <c r="E6" t="n">
+      <c r="F6" t="n">
         <v>8900</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr">
+      <c r="A7" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" t="inlineStr">
         <is>
           <t>21311A6723</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="C7" t="inlineStr">
         <is>
           <t>Naren Karthikeya</t>
         </is>
       </c>
-      <c r="C7" t="n">
-        <v>129</v>
-      </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>130</v>
       </c>
       <c r="E7" t="n">
-        <v>6450</v>
+        <v>0</v>
+      </c>
+      <c r="F7" t="n">
+        <v>6500</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="inlineStr">
+      <c r="A8" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" t="inlineStr">
         <is>
           <t>21311A6703</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="C8" t="inlineStr">
         <is>
           <t xml:space="preserve">Polunati Mohan Sreekar </t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="D8" t="n">
         <v>124</v>
       </c>
-      <c r="D8" t="n">
-        <v>0</v>
-      </c>
       <c r="E8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" t="n">
         <v>6200</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="inlineStr">
+      <c r="A9" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" t="inlineStr">
         <is>
           <t>21311A6714</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="C9" t="inlineStr">
         <is>
           <t>M.Kavya sri</t>
         </is>
       </c>
-      <c r="C9" t="n">
+      <c r="D9" t="n">
         <v>119</v>
       </c>
-      <c r="D9" t="n">
-        <v>0</v>
-      </c>
       <c r="E9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" t="n">
         <v>5950</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="inlineStr">
+      <c r="A10" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" t="inlineStr">
         <is>
           <t>21311A6704</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="C10" t="inlineStr">
         <is>
           <t xml:space="preserve">Kammari Satish kumar </t>
         </is>
       </c>
-      <c r="C10" t="n">
-        <v>99</v>
-      </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E10" t="n">
-        <v>4950</v>
+        <v>0</v>
+      </c>
+      <c r="F10" t="n">
+        <v>5000</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="inlineStr">
+      <c r="A11" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" t="inlineStr">
         <is>
           <t>21311A6733</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr">
+      <c r="C11" t="inlineStr">
         <is>
           <t>G Shiva Sai Tarun</t>
         </is>
       </c>
-      <c r="C11" t="n">
+      <c r="D11" t="n">
+        <v>27</v>
+      </c>
+      <c r="E11" t="n">
+        <v>138</v>
+      </c>
+      <c r="F11" t="n">
+        <v>4110</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>21311A6730</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Hemanth Gunde</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>76</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0</v>
+      </c>
+      <c r="F12" t="n">
+        <v>3800</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>21311A6716</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>L J Samanth</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>51</v>
+      </c>
+      <c r="E13" t="n">
+        <v>52</v>
+      </c>
+      <c r="F13" t="n">
+        <v>3590</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>13</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>21311A6719</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Shreeya Kavali</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>21</v>
+      </c>
+      <c r="E14" t="n">
+        <v>116</v>
+      </c>
+      <c r="F14" t="n">
+        <v>3370</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>14</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>21311A6721</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Akshitha</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>10</v>
+      </c>
+      <c r="E15" t="n">
+        <v>90</v>
+      </c>
+      <c r="F15" t="n">
+        <v>2300</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>15</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>21311A6706</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>BADVEETI VENKATA SAI GOUTHAM</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>39</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0</v>
+      </c>
+      <c r="F16" t="n">
+        <v>1950</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>16</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>21311A6727</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Amrutha varshini </t>
+        </is>
+      </c>
+      <c r="D17" t="n">
+        <v>1</v>
+      </c>
+      <c r="E17" t="n">
+        <v>84</v>
+      </c>
+      <c r="F17" t="n">
+        <v>1730</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>17</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>21311A6733</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Shiva sai Tarun</t>
+        </is>
+      </c>
+      <c r="D18" t="n">
+        <v>27</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0</v>
+      </c>
+      <c r="F18" t="n">
+        <v>1350</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>18</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>21311A6701</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Kora Vishnu Vardhan Reddy</t>
+        </is>
+      </c>
+      <c r="D19" t="n">
+        <v>23</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0</v>
+      </c>
+      <c r="F19" t="n">
+        <v>1150</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>19</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>21311A672</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Harshavardhan</t>
+        </is>
+      </c>
+      <c r="D20" t="n">
+        <v>4</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0</v>
+      </c>
+      <c r="F20" t="n">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>20</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>22315A6702</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Aavula Anusha </t>
+        </is>
+      </c>
+      <c r="D21" t="n">
+        <v>2</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0</v>
+      </c>
+      <c r="F21" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>21</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>22511A6701</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>M.Sai Pravan</t>
+        </is>
+      </c>
+      <c r="D22" t="n">
+        <v>1</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0</v>
+      </c>
+      <c r="F22" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>22</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>21311A6702</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Nikhil Vanne</t>
+        </is>
+      </c>
+      <c r="D23" t="n">
+        <v>0</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>23</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>22315A6707</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Arrasani Manisha</t>
+        </is>
+      </c>
+      <c r="D24" t="n">
+        <v>0</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>24</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>22315A6703</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t xml:space="preserve">S. Shylaja </t>
+        </is>
+      </c>
+      <c r="D25" t="n">
+        <v>0</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>25</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>21311A6720</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dhaneshwar Gulla </t>
+        </is>
+      </c>
+      <c r="D26" t="n">
+        <v>0</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
         <v>26</v>
       </c>
-      <c r="D11" t="n">
-        <v>138</v>
-      </c>
-      <c r="E11" t="n">
-        <v>4060</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>21311A6730</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>Hemanth Gunde</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>75</v>
-      </c>
-      <c r="D12" t="n">
-        <v>0</v>
-      </c>
-      <c r="E12" t="n">
-        <v>3750</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>21311A6716</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>L J Samanth</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>49</v>
-      </c>
-      <c r="D13" t="n">
-        <v>52</v>
-      </c>
-      <c r="E13" t="n">
-        <v>3490</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>21311A6719</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>Shreeya Kavali</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
-        <v>21</v>
-      </c>
-      <c r="D14" t="n">
-        <v>116</v>
-      </c>
-      <c r="E14" t="n">
-        <v>3370</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>21311A6721</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>Akshitha</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>10</v>
-      </c>
-      <c r="D15" t="n">
-        <v>90</v>
-      </c>
-      <c r="E15" t="n">
-        <v>2300</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>21311A6706</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>BADVEETI VENKATA SAI GOUTHAM</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
-        <v>39</v>
-      </c>
-      <c r="D16" t="n">
-        <v>0</v>
-      </c>
-      <c r="E16" t="n">
-        <v>1950</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>21311A6727</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Amrutha varshini </t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>1</v>
-      </c>
-      <c r="D17" t="n">
-        <v>84</v>
-      </c>
-      <c r="E17" t="n">
-        <v>1730</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>21311A6733</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>Shiva sai Tarun</t>
-        </is>
-      </c>
-      <c r="C18" t="n">
-        <v>26</v>
-      </c>
-      <c r="D18" t="n">
-        <v>0</v>
-      </c>
-      <c r="E18" t="n">
-        <v>1300</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>21311A6701</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>Kora Vishnu Vardhan Reddy</t>
-        </is>
-      </c>
-      <c r="C19" t="n">
-        <v>23</v>
-      </c>
-      <c r="D19" t="n">
-        <v>0</v>
-      </c>
-      <c r="E19" t="n">
-        <v>1150</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>21311A672</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>Harshavardhan</t>
-        </is>
-      </c>
-      <c r="C20" t="n">
-        <v>4</v>
-      </c>
-      <c r="D20" t="n">
-        <v>0</v>
-      </c>
-      <c r="E20" t="n">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>22315A6702</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Aavula Anusha </t>
-        </is>
-      </c>
-      <c r="C21" t="n">
-        <v>2</v>
-      </c>
-      <c r="D21" t="n">
-        <v>0</v>
-      </c>
-      <c r="E21" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>22511A6701</t>
-        </is>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>M.Sai Pravan</t>
-        </is>
-      </c>
-      <c r="C22" t="n">
-        <v>1</v>
-      </c>
-      <c r="D22" t="n">
-        <v>0</v>
-      </c>
-      <c r="E22" t="n">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>21311A6702</t>
-        </is>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>Nikhil Vanne</t>
-        </is>
-      </c>
-      <c r="C23" t="n">
-        <v>0</v>
-      </c>
-      <c r="D23" t="n">
-        <v>0</v>
-      </c>
-      <c r="E23" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>22315A6707</t>
-        </is>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>Arrasani Manisha</t>
-        </is>
-      </c>
-      <c r="C24" t="n">
-        <v>0</v>
-      </c>
-      <c r="D24" t="n">
-        <v>0</v>
-      </c>
-      <c r="E24" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>22315A6703</t>
-        </is>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t xml:space="preserve">S. Shylaja </t>
-        </is>
-      </c>
-      <c r="C25" t="n">
-        <v>0</v>
-      </c>
-      <c r="D25" t="n">
-        <v>0</v>
-      </c>
-      <c r="E25" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>21311A6720</t>
-        </is>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Dhaneshwar Gulla </t>
-        </is>
-      </c>
-      <c r="C26" t="n">
-        <v>0</v>
-      </c>
-      <c r="D26" t="n">
-        <v>0</v>
-      </c>
-      <c r="E26" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
+      <c r="B27" t="inlineStr">
         <is>
           <t>21311A6750</t>
         </is>
       </c>
-      <c r="B27" t="inlineStr">
+      <c r="C27" t="inlineStr">
         <is>
           <t>Anudeep goud</t>
         </is>
       </c>
-      <c r="C27" t="n">
-        <v>0</v>
-      </c>
       <c r="D27" t="n">
         <v>0</v>
       </c>
       <c r="E27" t="n">
         <v>0</v>
       </c>
+      <c r="F27" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="28">
-      <c r="A28" t="inlineStr">
+      <c r="A28" t="n">
+        <v>27</v>
+      </c>
+      <c r="B28" t="inlineStr">
         <is>
           <t>21311A6728</t>
         </is>
       </c>
-      <c r="B28" t="inlineStr">
+      <c r="C28" t="inlineStr">
         <is>
           <t xml:space="preserve">Saipriya </t>
         </is>
       </c>
-      <c r="C28" t="n">
-        <v>0</v>
-      </c>
       <c r="D28" t="n">
         <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
+      <c r="F28" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="29">
-      <c r="A29" t="inlineStr">
+      <c r="A29" t="n">
+        <v>28</v>
+      </c>
+      <c r="B29" t="inlineStr">
         <is>
           <t>21311A6707</t>
         </is>
       </c>
-      <c r="B29" t="inlineStr">
+      <c r="C29" t="inlineStr">
         <is>
           <t>Adarapu Saketh</t>
         </is>
       </c>
-      <c r="C29" t="n">
-        <v>0</v>
-      </c>
       <c r="D29" t="n">
         <v>0</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
       </c>
+      <c r="F29" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="30">
-      <c r="A30" t="inlineStr">
+      <c r="A30" t="n">
+        <v>29</v>
+      </c>
+      <c r="B30" t="inlineStr">
         <is>
           <t>21311A6757</t>
         </is>
       </c>
-      <c r="B30" t="inlineStr">
+      <c r="C30" t="inlineStr">
         <is>
           <t>Mohith Billakanti</t>
         </is>
       </c>
-      <c r="C30" t="n">
-        <v>0</v>
-      </c>
       <c r="D30" t="n">
         <v>0</v>
       </c>
       <c r="E30" t="n">
         <v>0</v>
       </c>
+      <c r="F30" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="31">
-      <c r="A31" t="inlineStr">
+      <c r="A31" t="n">
+        <v>30</v>
+      </c>
+      <c r="B31" t="inlineStr">
         <is>
           <t>21311A6740</t>
         </is>
       </c>
-      <c r="B31" t="inlineStr">
+      <c r="C31" t="inlineStr">
         <is>
           <t xml:space="preserve">Nidhitha </t>
         </is>
       </c>
-      <c r="C31" t="n">
-        <v>0</v>
-      </c>
       <c r="D31" t="n">
         <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
+      <c r="F31" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="32">
-      <c r="A32" t="inlineStr">
+      <c r="A32" t="n">
+        <v>31</v>
+      </c>
+      <c r="B32" t="inlineStr">
         <is>
           <t>21311A6752</t>
         </is>
       </c>
-      <c r="B32" t="inlineStr">
+      <c r="C32" t="inlineStr">
         <is>
           <t>Rithvika Keerthi</t>
         </is>
       </c>
-      <c r="C32" t="n">
-        <v>0</v>
-      </c>
       <c r="D32" t="n">
         <v>0</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
       </c>
+      <c r="F32" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="33">
-      <c r="A33" t="inlineStr">
+      <c r="A33" t="n">
+        <v>32</v>
+      </c>
+      <c r="B33" t="inlineStr">
         <is>
           <t>21311A6746</t>
         </is>
       </c>
-      <c r="B33" t="inlineStr">
+      <c r="C33" t="inlineStr">
         <is>
           <t xml:space="preserve">Movva Tasyasree </t>
         </is>
       </c>
-      <c r="C33" t="n">
-        <v>0</v>
-      </c>
       <c r="D33" t="n">
         <v>0</v>
       </c>
       <c r="E33" t="n">
         <v>0</v>
       </c>
+      <c r="F33" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="34">
-      <c r="A34" t="inlineStr">
+      <c r="A34" t="n">
+        <v>33</v>
+      </c>
+      <c r="B34" t="inlineStr">
         <is>
           <t>22315A6704</t>
         </is>
       </c>
-      <c r="B34" t="inlineStr">
+      <c r="C34" t="inlineStr">
         <is>
           <t>sujitha</t>
         </is>
       </c>
-      <c r="C34" t="n">
-        <v>0</v>
-      </c>
       <c r="D34" t="n">
         <v>0</v>
       </c>
       <c r="E34" t="n">
+        <v>0</v>
+      </c>
+      <c r="F34" t="n">
         <v>0</v>
       </c>
     </row>
